--- a/uploads/b1.xlsx
+++ b/uploads/b1.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\node\node-club3\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A88054A-214B-4631-8F62-BDB5D7D84D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E3515-45C4-4963-A9DA-8A0A3ABF7014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CB282EA2-8CF9-4FC9-8080-8059D698F33D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB282EA2-8CF9-4FC9-8080-8059D698F33D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -40,31 +39,31 @@
     <t>password</t>
   </si>
   <si>
-    <t>samir</t>
-  </si>
-  <si>
     <t>samir@gmail.com</t>
   </si>
   <si>
-    <t>sam123</t>
-  </si>
-  <si>
-    <t>raj</t>
-  </si>
-  <si>
-    <t>raj@gmail.com</t>
-  </si>
-  <si>
-    <t>raj@123</t>
-  </si>
-  <si>
-    <t>kenil</t>
-  </si>
-  <si>
-    <t>kenil@gmail.com</t>
-  </si>
-  <si>
-    <t>kenil@123</t>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>yash@gmail.com</t>
+  </si>
+  <si>
+    <t>amiii</t>
+  </si>
+  <si>
+    <t>amiii@gmail.com</t>
+  </si>
+  <si>
+    <t>ajay@123</t>
+  </si>
+  <si>
+    <t>yash@123</t>
+  </si>
+  <si>
+    <t>amiii@123</t>
   </si>
 </sst>
 </file>
@@ -429,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EAB69B-C006-4315-B889-1224628BF23D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,13 +453,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -468,13 +467,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -482,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -498,84 +497,7 @@
     <hyperlink ref="D3" r:id="rId3" xr:uid="{4107CFD4-B075-47B1-AC1F-5F96C870E56B}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{8E539E58-E046-4EC7-A405-2A921FF649EA}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{D4D084FF-4F15-4C90-A5E8-B6D8BFA55CA9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC70C7-D56D-4CE6-9405-9E446498E287}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A77237E-6BFC-46CF-9161-5A0D295C68BF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{71F729F5-CCDB-4F13-A275-B0A1FF561C40}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{76F7928B-5A60-4BF5-874B-9AEF01EB625C}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{EF6EB918-691D-4A29-B07B-2FFBE0407FF5}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{D1169628-8306-4FF7-8D95-8228D320A9F2}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{1E3177E8-3473-4EE4-BF97-20A32CBAB367}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
